--- a/biology/Médecine/Syndrome_d'hyper_immunoglobuline_M_lié_à_l'X/Syndrome_d'hyper_immunoglobuline_M_lié_à_l'X.xlsx
+++ b/biology/Médecine/Syndrome_d'hyper_immunoglobuline_M_lié_à_l'X/Syndrome_d'hyper_immunoglobuline_M_lié_à_l'X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27hyper_immunoglobuline_M_li%C3%A9_%C3%A0_l%27X</t>
+          <t>Syndrome_d'hyper_immunoglobuline_M_lié_à_l'X</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome d'hyper immunoglobuline M lié à l'X est une anomalie de la cytotoxicité des lymphocytes B et T avec un taux bas des immunoglobulines G et A et une concentration élevée des immunoglobulines M. La réponse immunitaire humorale est basse ou absente.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27hyper_immunoglobuline_M_li%C3%A9_%C3%A0_l%27X</t>
+          <t>Syndrome_d'hyper_immunoglobuline_M_lié_à_l'X</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Judith Johnson, Alexandra H Filipovich, Kejian Zhang : X-Linked Hyper IgM Syndrome GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2007. [1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Judith Johnson, Alexandra H Filipovich, Kejian Zhang : X-Linked Hyper IgM Syndrome GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2007. .</t>
         </is>
       </c>
     </row>
